--- a/biology/Botanique/Cymbidium_hookerianum/Cymbidium_hookerianum.xlsx
+++ b/biology/Botanique/Cymbidium_hookerianum/Cymbidium_hookerianum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cymbidium hookerianum est une espèce de plantes à fleurs de la famille des Orchidaceae. C'est une orchidée épiphyte originaire d'Asie du Sud.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une orchidée de taille moyenne à grande, qui préfère le froid, est une épiphyte à pseudobulbe ovoïde, à feuilles allongées ligulées, acuminées et articulées. Les fleurs forment une inflorescence forte, gainée à la base et pendante en arc de 75 cm de long, avec des bractées triangulaires à la base des fleurs et qui porte de 6 à 15 fleurs, de 14 cm de long, très parfumées et de longue durée de vie. La floraison a lieu en fin d'hiver et au printemps.
 </t>
@@ -542,7 +556,9 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son habitat naturel est le Népal, le Bhoutan et le Sikkim sur les pentes abruptes de la forêt dense humide et les forêts de chênes à une altitude comprise entre 1 600 et 2 400 mètres.
 </t>
@@ -573,7 +589,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Cymbidium grandiflorum Griff. (1851)
 Cyperorchis grandiflora (Sw.) Schltr. 1924</t>
